--- a/data/raw/Asilo2018/TABLA 2-4.xlsx
+++ b/data/raw/Asilo2018/TABLA 2-4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Trabajos\MINISTERIO DEL INTERIOR\19_0123 ANUARIO ESTADISTICO 2018\TABLAS\TABLAS APARTADO 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\Master\Visualización\Refugees-A-deep-analysis-of-refugee-crisis-data\Refugees-A-deep-analysis-of-refugee-crisis-data\data\raw\Asilo2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29586C-7427-4220-8ADA-73BC56349487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="456" windowWidth="28800" windowHeight="14244" tabRatio="812"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 2-4" sheetId="10" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Hombres</t>
   </si>
@@ -44,45 +45,9 @@
     <t>Andalucía</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Almería</t>
-  </si>
-  <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>Jaén</t>
-  </si>
-  <si>
-    <t>Málaga</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>Aragón</t>
   </si>
   <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Teruel</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
     <t>Asturias, Principado de</t>
   </si>
   <si>
@@ -92,114 +57,27 @@
     <t>Canarias</t>
   </si>
   <si>
-    <t>Palmas, Las</t>
-  </si>
-  <si>
-    <t>Santa Cruz de Tenerife</t>
-  </si>
-  <si>
     <t>Cantabria</t>
   </si>
   <si>
     <t>Castilla y León</t>
   </si>
   <si>
-    <t>Ávila</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>Palencia</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Segovia</t>
-  </si>
-  <si>
-    <t>Soria</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zamora</t>
-  </si>
-  <si>
     <t>Castilla-La Mancha</t>
   </si>
   <si>
-    <t>Albacete</t>
-  </si>
-  <si>
-    <t>Ciudad Real</t>
-  </si>
-  <si>
-    <t>Cuenca</t>
-  </si>
-  <si>
-    <t>Guadalajara</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
     <t>Cataluña</t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Lleida</t>
-  </si>
-  <si>
-    <t>Tarragona</t>
-  </si>
-  <si>
     <t>Comunitat Valenciana</t>
   </si>
   <si>
-    <t>Alicante/Alacant</t>
-  </si>
-  <si>
-    <t>Castellón/Castelló</t>
-  </si>
-  <si>
-    <t>Valencia/València</t>
-  </si>
-  <si>
     <t>Extremadura</t>
   </si>
   <si>
-    <t>Badajoz</t>
-  </si>
-  <si>
-    <t>Cáceres</t>
-  </si>
-  <si>
     <t>Galicia</t>
   </si>
   <si>
-    <t>Coruña, A</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Ourense</t>
-  </si>
-  <si>
-    <t>Pontevedra</t>
-  </si>
-  <si>
     <t>Madrid, Comunidad de</t>
   </si>
   <si>
@@ -210,15 +88,6 @@
   </si>
   <si>
     <t>País Vasco</t>
-  </si>
-  <si>
-    <t>Araba/Álava</t>
-  </si>
-  <si>
-    <t>Bizkaia</t>
-  </si>
-  <si>
-    <t>Gipuzkoa</t>
   </si>
   <si>
     <t>Rioja, La</t>
@@ -258,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -425,23 +294,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="01 Numero Gris Anuario" xfId="8"/>
-    <cellStyle name="02 Titulo Azul Anuario" xfId="7"/>
-    <cellStyle name="03 Cabeceras Anuario" xfId="2"/>
-    <cellStyle name="04 Celdas Texto Anuario" xfId="5"/>
-    <cellStyle name="05 Celdas Cifras Anuario" xfId="6"/>
-    <cellStyle name="06 Total Anuario" xfId="3"/>
-    <cellStyle name="07 Total Cifras Anuario" xfId="4"/>
-    <cellStyle name="Estilo 1" xfId="1"/>
+    <cellStyle name="01 Numero Gris Anuario" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="02 Titulo Azul Anuario" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="03 Cabeceras Anuario" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="04 Celdas Texto Anuario" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="05 Celdas Cifras Anuario" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="06 Total Anuario" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="07 Total Cifras Anuario" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Estilo 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -786,29 +655,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="28.2" customHeight="1">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="28.15" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -828,10 +697,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="5">
         <v>3159</v>
       </c>
@@ -843,144 +712,64 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>338</v>
-      </c>
-      <c r="D4" s="4">
-        <v>165</v>
-      </c>
-      <c r="E4" s="4">
-        <v>503</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>338</v>
-      </c>
-      <c r="D5" s="4">
-        <v>69</v>
-      </c>
-      <c r="E5" s="4">
-        <v>407</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>236</v>
-      </c>
-      <c r="D6" s="4">
-        <v>185</v>
-      </c>
-      <c r="E6" s="4">
-        <v>421</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>215</v>
-      </c>
-      <c r="D7" s="4">
-        <v>162</v>
-      </c>
-      <c r="E7" s="4">
-        <v>377</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>189</v>
-      </c>
-      <c r="D8" s="4">
-        <v>110</v>
-      </c>
-      <c r="E8" s="4">
-        <v>299</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4">
-        <v>59</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1118</v>
-      </c>
-      <c r="D10" s="4">
-        <v>925</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2043</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
-        <v>688</v>
-      </c>
-      <c r="D11" s="4">
-        <v>617</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1305</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="5">
@@ -994,59 +783,29 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4">
-        <v>222</v>
-      </c>
-      <c r="D13" s="4">
-        <v>145</v>
-      </c>
-      <c r="E13" s="4">
-        <v>367</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4">
-        <v>71</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4">
-        <v>294</v>
-      </c>
-      <c r="D15" s="4">
-        <v>243</v>
-      </c>
-      <c r="E15" s="4">
-        <v>537</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="5">
@@ -1061,7 +820,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="5">
@@ -1076,7 +835,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="5">
@@ -1090,42 +849,22 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4">
-        <v>500</v>
-      </c>
-      <c r="D19" s="4">
-        <v>571</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1071</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4">
-        <v>639</v>
-      </c>
-      <c r="D20" s="4">
-        <v>383</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1022</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="5">
@@ -1140,7 +879,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="5">
@@ -1154,161 +893,71 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4">
-        <v>64</v>
-      </c>
-      <c r="D23" s="4">
-        <v>49</v>
-      </c>
-      <c r="E23" s="4">
-        <v>113</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4">
-        <v>84</v>
-      </c>
-      <c r="D24" s="4">
-        <v>67</v>
-      </c>
-      <c r="E24" s="4">
-        <v>151</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4">
-        <v>81</v>
-      </c>
-      <c r="D25" s="4">
-        <v>78</v>
-      </c>
-      <c r="E25" s="4">
-        <v>159</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4">
-        <v>35</v>
-      </c>
-      <c r="D26" s="4">
-        <v>21</v>
-      </c>
-      <c r="E26" s="4">
-        <v>56</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4">
-        <v>74</v>
-      </c>
-      <c r="E27" s="4">
-        <v>143</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4">
-        <v>83</v>
-      </c>
-      <c r="D28" s="4">
-        <v>65</v>
-      </c>
-      <c r="E28" s="4">
-        <v>148</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="4">
-        <v>94</v>
-      </c>
-      <c r="D29" s="4">
-        <v>60</v>
-      </c>
-      <c r="E29" s="4">
-        <v>154</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="4">
-        <v>178</v>
-      </c>
-      <c r="D30" s="4">
-        <v>151</v>
-      </c>
-      <c r="E30" s="4">
-        <v>329</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="4">
-        <v>30</v>
-      </c>
-      <c r="D31" s="4">
-        <v>26</v>
-      </c>
-      <c r="E31" s="4">
-        <v>56</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="5">
@@ -1322,93 +971,43 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4">
-        <v>109</v>
-      </c>
-      <c r="D33" s="4">
-        <v>50</v>
-      </c>
-      <c r="E33" s="4">
-        <v>159</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4">
-        <v>104</v>
-      </c>
-      <c r="D34" s="4">
-        <v>82</v>
-      </c>
-      <c r="E34" s="4">
-        <v>186</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="4">
-        <v>30</v>
-      </c>
-      <c r="D35" s="4">
-        <v>34</v>
-      </c>
-      <c r="E35" s="4">
-        <v>64</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4">
-        <v>64</v>
-      </c>
-      <c r="D36" s="4">
-        <v>48</v>
-      </c>
-      <c r="E36" s="4">
-        <v>112</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="4">
-        <v>152</v>
-      </c>
-      <c r="D37" s="4">
-        <v>133</v>
-      </c>
-      <c r="E37" s="4">
-        <v>285</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5">
@@ -1422,76 +1021,36 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4183</v>
-      </c>
-      <c r="D39" s="4">
-        <v>3191</v>
-      </c>
-      <c r="E39" s="4">
-        <v>7374</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="4">
-        <v>161</v>
-      </c>
-      <c r="D40" s="4">
-        <v>148</v>
-      </c>
-      <c r="E40" s="4">
-        <v>309</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="4">
-        <v>111</v>
-      </c>
-      <c r="D41" s="4">
-        <v>69</v>
-      </c>
-      <c r="E41" s="4">
-        <v>180</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="4">
-        <v>94</v>
-      </c>
-      <c r="D42" s="4">
-        <v>90</v>
-      </c>
-      <c r="E42" s="4">
-        <v>184</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="5">
@@ -1505,59 +1064,29 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="4">
-        <v>263</v>
-      </c>
-      <c r="D44" s="4">
-        <v>242</v>
-      </c>
-      <c r="E44" s="4">
-        <v>505</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="4">
-        <v>132</v>
-      </c>
-      <c r="D45" s="4">
-        <v>105</v>
-      </c>
-      <c r="E45" s="4">
-        <v>237</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2025</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1562</v>
-      </c>
-      <c r="E46" s="4">
-        <v>3587</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="5">
@@ -1571,42 +1100,22 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="4">
-        <v>69</v>
-      </c>
-      <c r="D48" s="4">
-        <v>42</v>
-      </c>
-      <c r="E48" s="4">
-        <v>111</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="4">
-        <v>68</v>
-      </c>
-      <c r="D49" s="4">
-        <v>61</v>
-      </c>
-      <c r="E49" s="4">
-        <v>129</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="5">
@@ -1620,76 +1129,36 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="4">
-        <v>280</v>
-      </c>
-      <c r="D51" s="4">
-        <v>282</v>
-      </c>
-      <c r="E51" s="4">
-        <v>562</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="4">
-        <v>117</v>
-      </c>
-      <c r="D52" s="4">
-        <v>115</v>
-      </c>
-      <c r="E52" s="4">
-        <v>232</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="4">
-        <v>71</v>
-      </c>
-      <c r="D53" s="4">
-        <v>68</v>
-      </c>
-      <c r="E53" s="4">
-        <v>139</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="4">
-        <v>233</v>
-      </c>
-      <c r="D54" s="4">
-        <v>242</v>
-      </c>
-      <c r="E54" s="4">
-        <v>475</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="5">
@@ -1704,7 +1173,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="5">
@@ -1719,7 +1188,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="5">
@@ -1734,7 +1203,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="5">
@@ -1748,57 +1217,29 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="4">
-        <v>210</v>
-      </c>
-      <c r="D59" s="4">
-        <v>176</v>
-      </c>
-      <c r="E59" s="4">
-        <v>386</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="4">
-        <v>523</v>
-      </c>
-      <c r="D60" s="4">
-        <v>450</v>
-      </c>
-      <c r="E60" s="4">
-        <v>973</v>
-      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="4">
-        <v>127</v>
-      </c>
-      <c r="D61" s="4">
-        <v>110</v>
-      </c>
-      <c r="E61" s="4">
-        <v>237</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="5">
@@ -1813,7 +1254,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="5">
@@ -1828,7 +1269,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="5">
@@ -1857,16 +1298,28 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="A66" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
@@ -1876,18 +1329,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
